--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dcn-Erbb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dcn-Erbb4.xlsx
@@ -528,22 +528,22 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>6.615074666666666</v>
+        <v>1.233789666666667</v>
       </c>
       <c r="H2">
-        <v>19.845224</v>
+        <v>3.701369</v>
       </c>
       <c r="I2">
-        <v>0.0008916467884469989</v>
+        <v>0.0001664233864291757</v>
       </c>
       <c r="J2">
-        <v>0.0008916467884469988</v>
+        <v>0.0001664233864291757</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.04690528943644443</v>
+        <v>0.00874839126311111</v>
       </c>
       <c r="R2">
-        <v>0.422147604928</v>
+        <v>0.07873552136799999</v>
       </c>
       <c r="S2">
-        <v>0.0008916467884469989</v>
+        <v>0.0001664233864291757</v>
       </c>
       <c r="T2">
-        <v>0.0008916467884469988</v>
+        <v>0.0001664233864291757</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>21857.103027</v>
       </c>
       <c r="I3">
-        <v>0.9820406017477925</v>
+        <v>0.9827534361704352</v>
       </c>
       <c r="J3">
-        <v>0.9820406017477923</v>
+        <v>0.9827534361704352</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -632,10 +632,10 @@
         <v>464.944295590344</v>
       </c>
       <c r="S3">
-        <v>0.9820406017477925</v>
+        <v>0.9827534361704352</v>
       </c>
       <c r="T3">
-        <v>0.9820406017477923</v>
+        <v>0.9827534361704352</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>379.873909</v>
       </c>
       <c r="I4">
-        <v>0.01706775146376063</v>
+        <v>0.01708014044313564</v>
       </c>
       <c r="J4">
-        <v>0.01706775146376063</v>
+        <v>0.01708014044313564</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -694,10 +694,10 @@
         <v>8.080677792248</v>
       </c>
       <c r="S4">
-        <v>0.01706775146376063</v>
+        <v>0.01708014044313564</v>
       </c>
       <c r="T4">
-        <v>0.01706775146376063</v>
+        <v>0.01708014044313564</v>
       </c>
     </row>
   </sheetData>
